--- a/Code/Results/Cases/Case_2_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017413752674026</v>
+        <v>1.045457592443495</v>
       </c>
       <c r="D2">
-        <v>1.02994340034291</v>
+        <v>1.04557819089346</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.020590987673363</v>
+        <v>1.052934288542099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048505410881486</v>
+        <v>1.042587921345068</v>
       </c>
       <c r="J2">
-        <v>1.039085809922617</v>
+        <v>1.050517222926146</v>
       </c>
       <c r="K2">
-        <v>1.041000761168954</v>
+        <v>1.048346037851956</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.031770721316986</v>
+        <v>1.055681648964118</v>
       </c>
       <c r="N2">
-        <v>1.040561430957516</v>
+        <v>1.052009077878711</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023105824961881</v>
+        <v>1.04659938035503</v>
       </c>
       <c r="D3">
-        <v>1.034133176885115</v>
+        <v>1.046431228425557</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.026897788900106</v>
+        <v>1.054280666365417</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050513629144583</v>
+        <v>1.04292658005496</v>
       </c>
       <c r="J3">
-        <v>1.042985824878477</v>
+        <v>1.05130573138442</v>
       </c>
       <c r="K3">
-        <v>1.044347178690161</v>
+        <v>1.04901043596468</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.037197697034256</v>
+        <v>1.056839604052908</v>
       </c>
       <c r="N3">
-        <v>1.04446698438195</v>
+        <v>1.052798706109439</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026695095125296</v>
+        <v>1.04733762000706</v>
       </c>
       <c r="D4">
-        <v>1.036777862685686</v>
+        <v>1.046982705143404</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.030879067716111</v>
+        <v>1.055151713641695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05176984696508</v>
+        <v>1.043144267227801</v>
       </c>
       <c r="J4">
-        <v>1.045439739437928</v>
+        <v>1.051814829565823</v>
       </c>
       <c r="K4">
-        <v>1.046451784521837</v>
+        <v>1.049439209346241</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.040618563990038</v>
+        <v>1.057588191283284</v>
       </c>
       <c r="N4">
-        <v>1.046924383781544</v>
+        <v>1.053308527268654</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028182553334424</v>
+        <v>1.047647840579523</v>
       </c>
       <c r="D5">
-        <v>1.037874456090986</v>
+        <v>1.047214428021014</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.032530060890438</v>
+        <v>1.055517869004017</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052287982536578</v>
+        <v>1.043235436901588</v>
       </c>
       <c r="J5">
-        <v>1.046455371035836</v>
+        <v>1.052028587604522</v>
       </c>
       <c r="K5">
-        <v>1.047322593754718</v>
+        <v>1.049619194427273</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.042035943432254</v>
+        <v>1.057902735264406</v>
       </c>
       <c r="N5">
-        <v>1.047941457692816</v>
+        <v>1.053522588868286</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028431073009064</v>
+        <v>1.047699920095646</v>
       </c>
       <c r="D6">
-        <v>1.038057704072324</v>
+        <v>1.047253328416713</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.03280596775726</v>
+        <v>1.05557934625203</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05237440499243</v>
+        <v>1.043250724416772</v>
       </c>
       <c r="J6">
-        <v>1.046624981131691</v>
+        <v>1.052064462906514</v>
       </c>
       <c r="K6">
-        <v>1.047468003480704</v>
+        <v>1.049649398833162</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.042272737777629</v>
+        <v>1.057955539147885</v>
       </c>
       <c r="N6">
-        <v>1.048111308654462</v>
+        <v>1.053558515117322</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026715053701202</v>
+        <v>1.047341765719081</v>
       </c>
       <c r="D7">
-        <v>1.036792574433066</v>
+        <v>1.046985801898354</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.030901216282215</v>
+        <v>1.055156606353385</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051776809052145</v>
+        <v>1.043145486800346</v>
       </c>
       <c r="J7">
-        <v>1.045453372333901</v>
+        <v>1.051817686858219</v>
       </c>
       <c r="K7">
-        <v>1.046463474463185</v>
+        <v>1.049441615380455</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.040637583390008</v>
+        <v>1.057592394869249</v>
       </c>
       <c r="N7">
-        <v>1.046938036037793</v>
+        <v>1.053311388618733</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019357480337246</v>
+        <v>1.045843584909744</v>
       </c>
       <c r="D8">
-        <v>1.031373509987388</v>
+        <v>1.045866581972351</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.022743730278384</v>
+        <v>1.053389335816315</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049193281390823</v>
+        <v>1.04270267272584</v>
       </c>
       <c r="J8">
-        <v>1.040418686071552</v>
+        <v>1.050783935565578</v>
       </c>
       <c r="K8">
-        <v>1.042144636912077</v>
+        <v>1.048570810170775</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.033624190142428</v>
+        <v>1.056073129038953</v>
       </c>
       <c r="N8">
-        <v>1.041896199943464</v>
+        <v>1.052276169280683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.0056245777857</v>
+        <v>1.04319912057876</v>
       </c>
       <c r="D9">
-        <v>1.0212840197752</v>
+        <v>1.043890544989754</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.007551546726434</v>
+        <v>1.050273910587716</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044291555041521</v>
+        <v>1.041911265107914</v>
       </c>
       <c r="J9">
-        <v>1.030980269258644</v>
+        <v>1.048953706272953</v>
       </c>
       <c r="K9">
-        <v>1.034040965318595</v>
+        <v>1.047027595832306</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.020523282062133</v>
+        <v>1.053390617464929</v>
       </c>
       <c r="N9">
-        <v>1.032444379496081</v>
+        <v>1.050443340852533</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9958781039755608</v>
+        <v>1.041433010307072</v>
       </c>
       <c r="D10">
-        <v>1.014145435801475</v>
+        <v>1.04257056436606</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9967900936267919</v>
+        <v>1.048195928988961</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04076122529036</v>
+        <v>1.041376151760264</v>
       </c>
       <c r="J10">
-        <v>1.024256220142769</v>
+        <v>1.047727675983776</v>
       </c>
       <c r="K10">
-        <v>1.028263902080484</v>
+        <v>1.045992850186421</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.01121754679411</v>
+        <v>1.051598511480438</v>
       </c>
       <c r="N10">
-        <v>1.025710781459201</v>
+        <v>1.049215569459717</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9914986515629622</v>
+        <v>1.040667493515253</v>
       </c>
       <c r="D11">
-        <v>1.010944269697309</v>
+        <v>1.041998364436123</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9919589206339565</v>
+        <v>1.047295854974237</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039163303756822</v>
+        <v>1.041142652292423</v>
       </c>
       <c r="J11">
-        <v>1.021229423665775</v>
+        <v>1.047195379453442</v>
       </c>
       <c r="K11">
-        <v>1.025662702900731</v>
+        <v>1.045543372572504</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.007034090013703</v>
+        <v>1.05082158191389</v>
       </c>
       <c r="N11">
-        <v>1.022679686584033</v>
+        <v>1.048682517007255</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9898462127396044</v>
+        <v>1.040383026866614</v>
       </c>
       <c r="D12">
-        <v>1.009737501159853</v>
+        <v>1.041785726700365</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.990136639273537</v>
+        <v>1.046961479625378</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038558692484293</v>
+        <v>1.041055650177964</v>
       </c>
       <c r="J12">
-        <v>1.020086603577161</v>
+        <v>1.046997446250598</v>
       </c>
       <c r="K12">
-        <v>1.024680493943277</v>
+        <v>1.045376201101825</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.005455277175362</v>
+        <v>1.050532851977021</v>
       </c>
       <c r="N12">
-        <v>1.02153524355981</v>
+        <v>1.04848430271656</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9902018610996569</v>
+        <v>1.040444051382574</v>
       </c>
       <c r="D13">
-        <v>1.009997178712166</v>
+        <v>1.041831342633149</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9905288161042781</v>
+        <v>1.047033206492609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03868889611316</v>
+        <v>1.041074324658658</v>
       </c>
       <c r="J13">
-        <v>1.020332601964051</v>
+        <v>1.047039913330626</v>
       </c>
       <c r="K13">
-        <v>1.024891923158687</v>
+        <v>1.045412069720366</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.005795094356459</v>
+        <v>1.050594792081396</v>
       </c>
       <c r="N13">
-        <v>1.021781591292626</v>
+        <v>1.048526830104712</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9913625961118081</v>
+        <v>1.040643981868388</v>
       </c>
       <c r="D14">
-        <v>1.010844886348567</v>
+        <v>1.041980789723954</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9918088691748959</v>
+        <v>1.047268216399081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039113556354661</v>
+        <v>1.041135466183429</v>
       </c>
       <c r="J14">
-        <v>1.02113534336122</v>
+        <v>1.047179022619813</v>
       </c>
       <c r="K14">
-        <v>1.025581846079338</v>
+        <v>1.045529558529367</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.006904103387195</v>
+        <v>1.05079771835672</v>
       </c>
       <c r="N14">
-        <v>1.022585472674654</v>
+        <v>1.048666136945046</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9920742987282525</v>
+        <v>1.040767149711487</v>
       </c>
       <c r="D15">
-        <v>1.011364802913458</v>
+        <v>1.042072856095041</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9925938085934137</v>
+        <v>1.047413007319824</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03937371534341</v>
+        <v>1.041173101690818</v>
       </c>
       <c r="J15">
-        <v>1.021627444445905</v>
+        <v>1.047264703962309</v>
       </c>
       <c r="K15">
-        <v>1.026004776616457</v>
+        <v>1.045601918672775</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.007584046734076</v>
+        <v>1.050922728797322</v>
       </c>
       <c r="N15">
-        <v>1.023078272599324</v>
+        <v>1.048751939964876</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9961652506330421</v>
+        <v>1.041483798498554</v>
       </c>
       <c r="D16">
-        <v>1.014355469459802</v>
+        <v>1.042608525820516</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9971069439625841</v>
+        <v>1.048255657432349</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04086575940906</v>
+        <v>1.04139161052957</v>
       </c>
       <c r="J16">
-        <v>1.024454569339569</v>
+        <v>1.047762972750742</v>
       </c>
       <c r="K16">
-        <v>1.028434349080956</v>
+        <v>1.046022650386867</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.01149179865001</v>
+        <v>1.051650053755197</v>
       </c>
       <c r="N16">
-        <v>1.025909412334613</v>
+        <v>1.049250916352141</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9986875670191697</v>
+        <v>1.041933122900092</v>
       </c>
       <c r="D17">
-        <v>1.016201164895486</v>
+        <v>1.04294436526508</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9998906660548748</v>
+        <v>1.048784148283302</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041782685295844</v>
+        <v>1.041528195050305</v>
       </c>
       <c r="J17">
-        <v>1.026196273684588</v>
+        <v>1.048075142989318</v>
       </c>
       <c r="K17">
-        <v>1.029930969405716</v>
+        <v>1.046286181641093</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.013900612562858</v>
+        <v>1.052106032746453</v>
       </c>
       <c r="N17">
-        <v>1.027653590099577</v>
+        <v>1.049563529908262</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000143565362887</v>
+        <v>1.04219513119226</v>
       </c>
       <c r="D18">
-        <v>1.01726718845141</v>
+        <v>1.04314019309318</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.001497973979621</v>
+        <v>1.049092379902922</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04231087787921</v>
+        <v>1.041607689656691</v>
       </c>
       <c r="J18">
-        <v>1.02720115006835</v>
+        <v>1.048257089966806</v>
       </c>
       <c r="K18">
-        <v>1.030794378606207</v>
+        <v>1.046439757466236</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.01529090044146</v>
+        <v>1.05237190749034</v>
       </c>
       <c r="N18">
-        <v>1.028659893523066</v>
+        <v>1.049745735271328</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000637492375246</v>
+        <v>1.042284456599605</v>
       </c>
       <c r="D19">
-        <v>1.017628920953539</v>
+        <v>1.043206954900673</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.002043302394223</v>
+        <v>1.04919747425316</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042489871678775</v>
+        <v>1.041634765972103</v>
       </c>
       <c r="J19">
-        <v>1.027541951102492</v>
+        <v>1.048319106057054</v>
       </c>
       <c r="K19">
-        <v>1.031087189619153</v>
+        <v>1.046492099569704</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.015762504135636</v>
+        <v>1.052462548721039</v>
       </c>
       <c r="N19">
-        <v>1.029001178533766</v>
+        <v>1.049807839431537</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9984185337004438</v>
+        <v>1.041884922422765</v>
       </c>
       <c r="D20">
-        <v>1.01600423746738</v>
+        <v>1.04290833925434</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9995937082541012</v>
+        <v>1.048727449153903</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041684998691999</v>
+        <v>1.041513558706575</v>
       </c>
       <c r="J20">
-        <v>1.026010554634559</v>
+        <v>1.048041664222063</v>
       </c>
       <c r="K20">
-        <v>1.029771390519894</v>
+        <v>1.04625792146227</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.013643705576572</v>
+        <v>1.0520571198562</v>
       </c>
       <c r="N20">
-        <v>1.027467607307196</v>
+        <v>1.049530003597318</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9910215138446711</v>
+        <v>1.040585110646151</v>
       </c>
       <c r="D21">
-        <v>1.010595756519578</v>
+        <v>1.041936783972872</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9914327092609954</v>
+        <v>1.047199013186923</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038988815824013</v>
+        <v>1.041117468988564</v>
       </c>
       <c r="J21">
-        <v>1.020899478046503</v>
+        <v>1.047138064337729</v>
       </c>
       <c r="K21">
-        <v>1.025379131659975</v>
+        <v>1.04549496696155</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.006578229951264</v>
+        <v>1.050737965618318</v>
       </c>
       <c r="N21">
-        <v>1.022349272404136</v>
+        <v>1.048625120497503</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9862209019651867</v>
+        <v>1.039767174003342</v>
       </c>
       <c r="D22">
-        <v>1.007092081225002</v>
+        <v>1.041325365653892</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9861397467203247</v>
+        <v>1.046237746589419</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037229178711206</v>
+        <v>1.040866869032141</v>
       </c>
       <c r="J22">
-        <v>1.01757801723327</v>
+        <v>1.046568692970023</v>
       </c>
       <c r="K22">
-        <v>1.022524339776452</v>
+        <v>1.045014019910386</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.001990870747258</v>
+        <v>1.049907728026285</v>
       </c>
       <c r="N22">
-        <v>1.019023094735572</v>
+        <v>1.048054940557147</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9887806489016855</v>
+        <v>1.040200844267667</v>
       </c>
       <c r="D23">
-        <v>1.008959644962026</v>
+        <v>1.041649543808147</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9889617151891328</v>
+        <v>1.046747359771424</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03816834411652</v>
+        <v>1.040999865201111</v>
       </c>
       <c r="J23">
-        <v>1.019349456850656</v>
+        <v>1.046870645804538</v>
       </c>
       <c r="K23">
-        <v>1.024046925472282</v>
+        <v>1.045269097686644</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.004437095929624</v>
+        <v>1.050347932677103</v>
       </c>
       <c r="N23">
-        <v>1.020797050000401</v>
+        <v>1.048357322199322</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.998540145196729</v>
+        <v>1.041906702374879</v>
       </c>
       <c r="D24">
-        <v>1.016093252978991</v>
+        <v>1.042924618047971</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9997279412027806</v>
+        <v>1.048753069136007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041729159517534</v>
+        <v>1.041520172774083</v>
       </c>
       <c r="J24">
-        <v>1.026094507075771</v>
+        <v>1.048056792257653</v>
       </c>
       <c r="K24">
-        <v>1.029843526767408</v>
+        <v>1.046270691445113</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.0137598361835</v>
+        <v>1.052079221763454</v>
       </c>
       <c r="N24">
-        <v>1.027551678970503</v>
+        <v>1.049545153116453</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009273163350237</v>
+        <v>1.043883321340797</v>
       </c>
       <c r="D25">
-        <v>1.023961209231117</v>
+        <v>1.044401856576896</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.011584125713892</v>
+        <v>1.0510794913734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045602855014752</v>
+        <v>1.042117183623899</v>
       </c>
       <c r="J25">
-        <v>1.033492428531775</v>
+        <v>1.049427894692412</v>
       </c>
       <c r="K25">
-        <v>1.036198606455726</v>
+        <v>1.047427595807153</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.024005235733899</v>
+        <v>1.054084763301809</v>
       </c>
       <c r="N25">
-        <v>1.034960106323528</v>
+        <v>1.050918202673937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045457592443495</v>
+        <v>1.017413752674026</v>
       </c>
       <c r="D2">
-        <v>1.04557819089346</v>
+        <v>1.029943400342909</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.052934288542099</v>
+        <v>1.020590987673362</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042587921345068</v>
+        <v>1.048505410881486</v>
       </c>
       <c r="J2">
-        <v>1.050517222926146</v>
+        <v>1.039085809922617</v>
       </c>
       <c r="K2">
-        <v>1.048346037851956</v>
+        <v>1.041000761168954</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.055681648964118</v>
+        <v>1.031770721316986</v>
       </c>
       <c r="N2">
-        <v>1.052009077878711</v>
+        <v>1.040561430957515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04659938035503</v>
+        <v>1.023105824961881</v>
       </c>
       <c r="D3">
-        <v>1.046431228425557</v>
+        <v>1.034133176885115</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.054280666365417</v>
+        <v>1.026897788900106</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04292658005496</v>
+        <v>1.050513629144583</v>
       </c>
       <c r="J3">
-        <v>1.05130573138442</v>
+        <v>1.042985824878477</v>
       </c>
       <c r="K3">
-        <v>1.04901043596468</v>
+        <v>1.044347178690162</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.056839604052908</v>
+        <v>1.037197697034255</v>
       </c>
       <c r="N3">
-        <v>1.052798706109439</v>
+        <v>1.044466984381951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04733762000706</v>
+        <v>1.026695095125296</v>
       </c>
       <c r="D4">
-        <v>1.046982705143404</v>
+        <v>1.036777862685686</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.055151713641695</v>
+        <v>1.030879067716111</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043144267227801</v>
+        <v>1.05176984696508</v>
       </c>
       <c r="J4">
-        <v>1.051814829565823</v>
+        <v>1.045439739437928</v>
       </c>
       <c r="K4">
-        <v>1.049439209346241</v>
+        <v>1.046451784521837</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.057588191283284</v>
+        <v>1.040618563990038</v>
       </c>
       <c r="N4">
-        <v>1.053308527268654</v>
+        <v>1.046924383781544</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047647840579523</v>
+        <v>1.028182553334425</v>
       </c>
       <c r="D5">
-        <v>1.047214428021014</v>
+        <v>1.037874456090987</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.055517869004017</v>
+        <v>1.032530060890438</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043235436901588</v>
+        <v>1.052287982536578</v>
       </c>
       <c r="J5">
-        <v>1.052028587604522</v>
+        <v>1.046455371035837</v>
       </c>
       <c r="K5">
-        <v>1.049619194427273</v>
+        <v>1.047322593754718</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.057902735264406</v>
+        <v>1.042035943432255</v>
       </c>
       <c r="N5">
-        <v>1.053522588868286</v>
+        <v>1.047941457692817</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047699920095646</v>
+        <v>1.028431073009063</v>
       </c>
       <c r="D6">
-        <v>1.047253328416713</v>
+        <v>1.038057704072323</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.05557934625203</v>
+        <v>1.032805967757259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043250724416772</v>
+        <v>1.052374404992429</v>
       </c>
       <c r="J6">
-        <v>1.052064462906514</v>
+        <v>1.046624981131691</v>
       </c>
       <c r="K6">
-        <v>1.049649398833162</v>
+        <v>1.047468003480703</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.057955539147885</v>
+        <v>1.042272737777628</v>
       </c>
       <c r="N6">
-        <v>1.053558515117322</v>
+        <v>1.048111308654461</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047341765719081</v>
+        <v>1.026715053701202</v>
       </c>
       <c r="D7">
-        <v>1.046985801898354</v>
+        <v>1.036792574433066</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.055156606353385</v>
+        <v>1.030901216282215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043145486800346</v>
+        <v>1.051776809052145</v>
       </c>
       <c r="J7">
-        <v>1.051817686858219</v>
+        <v>1.0454533723339</v>
       </c>
       <c r="K7">
-        <v>1.049441615380455</v>
+        <v>1.046463474463185</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.057592394869249</v>
+        <v>1.040637583390008</v>
       </c>
       <c r="N7">
-        <v>1.053311388618733</v>
+        <v>1.046938036037792</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045843584909744</v>
+        <v>1.019357480337246</v>
       </c>
       <c r="D8">
-        <v>1.045866581972351</v>
+        <v>1.031373509987388</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.053389335816315</v>
+        <v>1.022743730278384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04270267272584</v>
+        <v>1.049193281390824</v>
       </c>
       <c r="J8">
-        <v>1.050783935565578</v>
+        <v>1.040418686071553</v>
       </c>
       <c r="K8">
-        <v>1.048570810170775</v>
+        <v>1.042144636912077</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.056073129038953</v>
+        <v>1.033624190142428</v>
       </c>
       <c r="N8">
-        <v>1.052276169280683</v>
+        <v>1.041896199943465</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04319912057876</v>
+        <v>1.005624577785701</v>
       </c>
       <c r="D9">
-        <v>1.043890544989754</v>
+        <v>1.0212840197752</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.050273910587716</v>
+        <v>1.007551546726434</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041911265107914</v>
+        <v>1.044291555041521</v>
       </c>
       <c r="J9">
-        <v>1.048953706272953</v>
+        <v>1.030980269258645</v>
       </c>
       <c r="K9">
-        <v>1.047027595832306</v>
+        <v>1.034040965318596</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.053390617464929</v>
+        <v>1.020523282062134</v>
       </c>
       <c r="N9">
-        <v>1.050443340852533</v>
+        <v>1.032444379496082</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041433010307072</v>
+        <v>0.9958781039755593</v>
       </c>
       <c r="D10">
-        <v>1.04257056436606</v>
+        <v>1.014145435801474</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.048195928988961</v>
+        <v>0.9967900936267903</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041376151760264</v>
+        <v>1.040761225290359</v>
       </c>
       <c r="J10">
-        <v>1.047727675983776</v>
+        <v>1.024256220142767</v>
       </c>
       <c r="K10">
-        <v>1.045992850186421</v>
+        <v>1.028263902080482</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.051598511480438</v>
+        <v>1.011217546794109</v>
       </c>
       <c r="N10">
-        <v>1.049215569459717</v>
+        <v>1.0257107814592</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040667493515253</v>
+        <v>0.9914986515629632</v>
       </c>
       <c r="D11">
-        <v>1.041998364436123</v>
+        <v>1.01094426969731</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.047295854974237</v>
+        <v>0.9919589206339575</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041142652292423</v>
+        <v>1.039163303756823</v>
       </c>
       <c r="J11">
-        <v>1.047195379453442</v>
+        <v>1.021229423665776</v>
       </c>
       <c r="K11">
-        <v>1.045543372572504</v>
+        <v>1.025662702900732</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.05082158191389</v>
+        <v>1.007034090013704</v>
       </c>
       <c r="N11">
-        <v>1.048682517007255</v>
+        <v>1.022679686584034</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040383026866614</v>
+        <v>0.9898462127396028</v>
       </c>
       <c r="D12">
-        <v>1.041785726700365</v>
+        <v>1.009737501159852</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.046961479625378</v>
+        <v>0.9901366392735357</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041055650177964</v>
+        <v>1.038558692484292</v>
       </c>
       <c r="J12">
-        <v>1.046997446250598</v>
+        <v>1.02008660357716</v>
       </c>
       <c r="K12">
-        <v>1.045376201101825</v>
+        <v>1.024680493943276</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.050532851977021</v>
+        <v>1.00545527717536</v>
       </c>
       <c r="N12">
-        <v>1.04848430271656</v>
+        <v>1.021535243559808</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040444051382574</v>
+        <v>0.9902018610996568</v>
       </c>
       <c r="D13">
-        <v>1.041831342633149</v>
+        <v>1.009997178712166</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.047033206492609</v>
+        <v>0.9905288161042778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041074324658658</v>
+        <v>1.03868889611316</v>
       </c>
       <c r="J13">
-        <v>1.047039913330626</v>
+        <v>1.020332601964051</v>
       </c>
       <c r="K13">
-        <v>1.045412069720366</v>
+        <v>1.024891923158687</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.050594792081396</v>
+        <v>1.005795094356458</v>
       </c>
       <c r="N13">
-        <v>1.048526830104712</v>
+        <v>1.021781591292625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040643981868388</v>
+        <v>0.9913625961118067</v>
       </c>
       <c r="D14">
-        <v>1.041980789723954</v>
+        <v>1.010844886348566</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.047268216399081</v>
+        <v>0.9918088691748942</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041135466183429</v>
+        <v>1.039113556354661</v>
       </c>
       <c r="J14">
-        <v>1.047179022619813</v>
+        <v>1.021135343361219</v>
       </c>
       <c r="K14">
-        <v>1.045529558529367</v>
+        <v>1.025581846079337</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.05079771835672</v>
+        <v>1.006904103387193</v>
       </c>
       <c r="N14">
-        <v>1.048666136945046</v>
+        <v>1.022585472674652</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040767149711487</v>
+        <v>0.9920742987282531</v>
       </c>
       <c r="D15">
-        <v>1.042072856095041</v>
+        <v>1.011364802913458</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.047413007319824</v>
+        <v>0.9925938085934138</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041173101690818</v>
+        <v>1.03937371534341</v>
       </c>
       <c r="J15">
-        <v>1.047264703962309</v>
+        <v>1.021627444445905</v>
       </c>
       <c r="K15">
-        <v>1.045601918672775</v>
+        <v>1.026004776616457</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.050922728797322</v>
+        <v>1.007584046734076</v>
       </c>
       <c r="N15">
-        <v>1.048751939964876</v>
+        <v>1.023078272599324</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041483798498554</v>
+        <v>0.9961652506330422</v>
       </c>
       <c r="D16">
-        <v>1.042608525820516</v>
+        <v>1.014355469459802</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.048255657432349</v>
+        <v>0.9971069439625841</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04139161052957</v>
+        <v>1.04086575940906</v>
       </c>
       <c r="J16">
-        <v>1.047762972750742</v>
+        <v>1.024454569339569</v>
       </c>
       <c r="K16">
-        <v>1.046022650386867</v>
+        <v>1.028434349080956</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.051650053755197</v>
+        <v>1.01149179865001</v>
       </c>
       <c r="N16">
-        <v>1.049250916352141</v>
+        <v>1.025909412334613</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041933122900092</v>
+        <v>0.9986875670191693</v>
       </c>
       <c r="D17">
-        <v>1.04294436526508</v>
+        <v>1.016201164895486</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.048784148283302</v>
+        <v>0.9998906660548742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041528195050305</v>
+        <v>1.041782685295843</v>
       </c>
       <c r="J17">
-        <v>1.048075142989318</v>
+        <v>1.026196273684587</v>
       </c>
       <c r="K17">
-        <v>1.046286181641093</v>
+        <v>1.029930969405715</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.052106032746453</v>
+        <v>1.013900612562857</v>
       </c>
       <c r="N17">
-        <v>1.049563529908262</v>
+        <v>1.027653590099577</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04219513119226</v>
+        <v>1.000143565362887</v>
       </c>
       <c r="D18">
-        <v>1.04314019309318</v>
+        <v>1.01726718845141</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.049092379902922</v>
+        <v>1.00149797397962</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041607689656691</v>
+        <v>1.04231087787921</v>
       </c>
       <c r="J18">
-        <v>1.048257089966806</v>
+        <v>1.02720115006835</v>
       </c>
       <c r="K18">
-        <v>1.046439757466236</v>
+        <v>1.030794378606206</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.05237190749034</v>
+        <v>1.01529090044146</v>
       </c>
       <c r="N18">
-        <v>1.049745735271328</v>
+        <v>1.028659893523066</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042284456599605</v>
+        <v>1.000637492375246</v>
       </c>
       <c r="D19">
-        <v>1.043206954900673</v>
+        <v>1.017628920953539</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.04919747425316</v>
+        <v>1.002043302394223</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041634765972103</v>
+        <v>1.042489871678775</v>
       </c>
       <c r="J19">
-        <v>1.048319106057054</v>
+        <v>1.027541951102492</v>
       </c>
       <c r="K19">
-        <v>1.046492099569704</v>
+        <v>1.031087189619153</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.052462548721039</v>
+        <v>1.015762504135637</v>
       </c>
       <c r="N19">
-        <v>1.049807839431537</v>
+        <v>1.029001178533767</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041884922422765</v>
+        <v>0.9984185337004425</v>
       </c>
       <c r="D20">
-        <v>1.04290833925434</v>
+        <v>1.016004237467379</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.048727449153903</v>
+        <v>0.9995937082541003</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041513558706575</v>
+        <v>1.041684998691998</v>
       </c>
       <c r="J20">
-        <v>1.048041664222063</v>
+        <v>1.026010554634558</v>
       </c>
       <c r="K20">
-        <v>1.04625792146227</v>
+        <v>1.029771390519893</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.0520571198562</v>
+        <v>1.013643705576571</v>
       </c>
       <c r="N20">
-        <v>1.049530003597318</v>
+        <v>1.027467607307194</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040585110646151</v>
+        <v>0.9910215138446713</v>
       </c>
       <c r="D21">
-        <v>1.041936783972872</v>
+        <v>1.010595756519578</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.047199013186923</v>
+        <v>0.9914327092609956</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041117468988564</v>
+        <v>1.038988815824014</v>
       </c>
       <c r="J21">
-        <v>1.047138064337729</v>
+        <v>1.020899478046503</v>
       </c>
       <c r="K21">
-        <v>1.04549496696155</v>
+        <v>1.025379131659975</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.050737965618318</v>
+        <v>1.006578229951265</v>
       </c>
       <c r="N21">
-        <v>1.048625120497503</v>
+        <v>1.022349272404137</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039767174003342</v>
+        <v>0.9862209019651854</v>
       </c>
       <c r="D22">
-        <v>1.041325365653892</v>
+        <v>1.007092081225001</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.046237746589419</v>
+        <v>0.9861397467203232</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040866869032141</v>
+        <v>1.037229178711205</v>
       </c>
       <c r="J22">
-        <v>1.046568692970023</v>
+        <v>1.017578017233269</v>
       </c>
       <c r="K22">
-        <v>1.045014019910386</v>
+        <v>1.022524339776451</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.049907728026285</v>
+        <v>1.001990870747256</v>
       </c>
       <c r="N22">
-        <v>1.048054940557147</v>
+        <v>1.019023094735571</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040200844267667</v>
+        <v>0.9887806489016854</v>
       </c>
       <c r="D23">
-        <v>1.041649543808147</v>
+        <v>1.008959644962026</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.046747359771424</v>
+        <v>0.9889617151891326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040999865201111</v>
+        <v>1.03816834411652</v>
       </c>
       <c r="J23">
-        <v>1.046870645804538</v>
+        <v>1.019349456850656</v>
       </c>
       <c r="K23">
-        <v>1.045269097686644</v>
+        <v>1.024046925472281</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.050347932677103</v>
+        <v>1.004437095929624</v>
       </c>
       <c r="N23">
-        <v>1.048357322199322</v>
+        <v>1.020797050000401</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041906702374879</v>
+        <v>0.9985401451967296</v>
       </c>
       <c r="D24">
-        <v>1.042924618047971</v>
+        <v>1.016093252978991</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.048753069136007</v>
+        <v>0.9997279412027813</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041520172774083</v>
+        <v>1.041729159517534</v>
       </c>
       <c r="J24">
-        <v>1.048056792257653</v>
+        <v>1.026094507075771</v>
       </c>
       <c r="K24">
-        <v>1.046270691445113</v>
+        <v>1.029843526767409</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.052079221763454</v>
+        <v>1.0137598361835</v>
       </c>
       <c r="N24">
-        <v>1.049545153116453</v>
+        <v>1.027551678970504</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043883321340797</v>
+        <v>1.009273163350233</v>
       </c>
       <c r="D25">
-        <v>1.044401856576896</v>
+        <v>1.023961209231114</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.0510794913734</v>
+        <v>1.011584125713889</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042117183623899</v>
+        <v>1.04560285501475</v>
       </c>
       <c r="J25">
-        <v>1.049427894692412</v>
+        <v>1.033492428531771</v>
       </c>
       <c r="K25">
-        <v>1.047427595807153</v>
+        <v>1.036198606455724</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.054084763301809</v>
+        <v>1.024005235733896</v>
       </c>
       <c r="N25">
-        <v>1.050918202673937</v>
+        <v>1.034960106323525</v>
       </c>
     </row>
   </sheetData>
